--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.262199999999996</v>
+        <v>-7.364299999999991</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.689700000000002</v>
+        <v>8.609000000000002</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0807</v>
+        <v>6.076299999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.77229999999999</v>
+        <v>-12.62719999999998</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.810100000000005</v>
+        <v>4.797400000000008</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.336800000000004</v>
+        <v>-8.463400000000002</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
